--- a/cme/on/on_cashflows.xlsx
+++ b/cme/on/on_cashflows.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sailing\Desktop\Work\py\quant\cme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sailing\Desktop\Work\py\quant\cme\on\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6366B665-D74A-4CF0-800E-D4A6CB2D616A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFD4384-1B08-4F19-AADB-CEA03AA456D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GNCXD" sheetId="7" r:id="rId1"/>
@@ -20,15 +20,14 @@
     <sheet name="CAC2D" sheetId="16" r:id="rId5"/>
     <sheet name="MGCHD" sheetId="15" r:id="rId6"/>
     <sheet name="CSDOD" sheetId="18" r:id="rId7"/>
-    <sheet name="YCAMO" sheetId="3" r:id="rId8"/>
-    <sheet name="BYC2D" sheetId="5" r:id="rId9"/>
-    <sheet name="IRCFD" sheetId="6" r:id="rId10"/>
-    <sheet name="TLC1D" sheetId="4" r:id="rId11"/>
-    <sheet name="TGS25" sheetId="19" r:id="rId12"/>
-    <sheet name="YCA6O" sheetId="2" r:id="rId13"/>
-    <sheet name="RCC9D" sheetId="17" r:id="rId14"/>
-    <sheet name="VSCFD" sheetId="9" r:id="rId15"/>
-    <sheet name="YMCHD" sheetId="11" r:id="rId16"/>
+    <sheet name="BYC2D" sheetId="5" r:id="rId8"/>
+    <sheet name="IRCFD" sheetId="6" r:id="rId9"/>
+    <sheet name="TLC1D" sheetId="4" r:id="rId10"/>
+    <sheet name="TGS25" sheetId="19" r:id="rId11"/>
+    <sheet name="YCA6O" sheetId="2" r:id="rId12"/>
+    <sheet name="RCC9D" sheetId="17" r:id="rId13"/>
+    <sheet name="VSCFD" sheetId="9" r:id="rId14"/>
+    <sheet name="YMCHD" sheetId="11" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="7">
   <si>
     <t>#</t>
   </si>
@@ -890,325 +889,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04B532E-F4B6-4375-B5F8-9D1BF0F1A669}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>44917</v>
-      </c>
-      <c r="C2" s="7">
-        <v>44917</v>
-      </c>
-      <c r="D2" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <v>45099</v>
-      </c>
-      <c r="C3" s="7">
-        <v>45099</v>
-      </c>
-      <c r="D3" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>45282</v>
-      </c>
-      <c r="C4" s="7">
-        <v>45282</v>
-      </c>
-      <c r="D4" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>45465</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45467</v>
-      </c>
-      <c r="D5" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="G5" s="6">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>45648</v>
-      </c>
-      <c r="C6" s="7">
-        <v>45649</v>
-      </c>
-      <c r="D6" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>45830</v>
-      </c>
-      <c r="C7" s="7">
-        <v>45831</v>
-      </c>
-      <c r="D7" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="G7" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9">
-        <v>46013</v>
-      </c>
-      <c r="C8" s="9">
-        <v>46013</v>
-      </c>
-      <c r="D8" s="8">
-        <v>8.75</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7">
-        <v>46195</v>
-      </c>
-      <c r="C9" s="7">
-        <v>46195</v>
-      </c>
-      <c r="D9" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="G9" s="6">
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7">
-        <v>46378</v>
-      </c>
-      <c r="C10" s="7">
-        <v>46378</v>
-      </c>
-      <c r="D10" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
-        <v>46560</v>
-      </c>
-      <c r="C11" s="7">
-        <v>46560</v>
-      </c>
-      <c r="D11" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="G11" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7">
-        <v>46743</v>
-      </c>
-      <c r="C12" s="7">
-        <v>46743</v>
-      </c>
-      <c r="D12" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7">
-        <v>46926</v>
-      </c>
-      <c r="C13" s="7">
-        <v>46926</v>
-      </c>
-      <c r="D13" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>30</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB39E4E0-5CFB-4814-BB8E-BF75FBE72B9A}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -1573,7 +1253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC740390-C6AF-417D-8A7C-B2027317F75E}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -1772,7 +1452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45997B82-8BF1-4FC3-9B0B-CDBB379F8C3A}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -2270,7 +1950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F4E2DC-B920-4141-B2FA-527CE37F2164}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -2634,7 +2314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C450AD5E-BC0D-4294-82E5-CE5380F73DB8}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -2814,7 +2494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E5622C-DB70-4A80-8350-2C4746F7498F}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -4683,7 +4363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D954CA-9F48-49CD-8D10-A0C67541F125}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -4879,11 +4559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD80C14D-A00A-4CE6-B50D-19847F306C2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25AEC68-CF81-4BF0-A760-43A5B2F316DF}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4920,13 +4600,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>43122</v>
+        <v>42754</v>
       </c>
       <c r="C2" s="7">
-        <v>43122</v>
+        <v>42754</v>
       </c>
       <c r="D2" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
@@ -4943,13 +4623,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>43304</v>
+        <v>42935</v>
       </c>
       <c r="C3" s="7">
-        <v>43304</v>
+        <v>42935</v>
       </c>
       <c r="D3" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
@@ -4966,13 +4646,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>43487</v>
+        <v>43119</v>
       </c>
       <c r="C4" s="7">
-        <v>43487</v>
+        <v>43119</v>
       </c>
       <c r="D4" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
@@ -4989,13 +4669,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>43668</v>
+        <v>43300</v>
       </c>
       <c r="C5" s="7">
-        <v>43668</v>
+        <v>43300</v>
       </c>
       <c r="D5" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -5012,13 +4692,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>43851</v>
+        <v>43487</v>
       </c>
       <c r="C6" s="7">
-        <v>43851</v>
+        <v>43487</v>
       </c>
       <c r="D6" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -5035,13 +4715,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>44033</v>
+        <v>43665</v>
       </c>
       <c r="C7" s="7">
-        <v>44033</v>
+        <v>43665</v>
       </c>
       <c r="D7" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -5058,13 +4738,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>44217</v>
+        <v>43851</v>
       </c>
       <c r="C8" s="7">
-        <v>44217</v>
+        <v>43851</v>
       </c>
       <c r="D8" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -5081,13 +4761,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>44398</v>
+        <v>44032</v>
       </c>
       <c r="C9" s="7">
-        <v>44398</v>
+        <v>44032</v>
       </c>
       <c r="D9" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
@@ -5104,13 +4784,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="7">
-        <v>44582</v>
+        <v>44215</v>
       </c>
       <c r="C10" s="7">
-        <v>44582</v>
+        <v>44215</v>
       </c>
       <c r="D10" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
@@ -5127,13 +4807,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7">
-        <v>44763</v>
+        <v>44396</v>
       </c>
       <c r="C11" s="7">
-        <v>44763</v>
+        <v>44396</v>
       </c>
       <c r="D11" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
@@ -5150,13 +4830,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7">
-        <v>44949</v>
+        <v>44580</v>
       </c>
       <c r="C12" s="7">
-        <v>44949</v>
+        <v>44580</v>
       </c>
       <c r="D12" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
@@ -5173,13 +4853,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="7">
-        <v>45128</v>
+        <v>44761</v>
       </c>
       <c r="C13" s="7">
-        <v>45128</v>
+        <v>44761</v>
       </c>
       <c r="D13" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -5196,13 +4876,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="7">
-        <v>45313</v>
+        <v>44945</v>
       </c>
       <c r="C14" s="7">
-        <v>45313</v>
+        <v>44945</v>
       </c>
       <c r="D14" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -5219,13 +4899,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="7">
-        <v>45495</v>
+        <v>45126</v>
       </c>
       <c r="C15" s="7">
-        <v>45495</v>
+        <v>45126</v>
       </c>
       <c r="D15" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
@@ -5242,13 +4922,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="7">
-        <v>45678</v>
+        <v>45310</v>
       </c>
       <c r="C16" s="7">
-        <v>45678</v>
+        <v>45310</v>
       </c>
       <c r="D16" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -5265,13 +4945,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="7">
-        <v>45859</v>
+        <v>45492</v>
       </c>
       <c r="C17" s="7">
-        <v>45859</v>
+        <v>45492</v>
       </c>
       <c r="D17" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -5284,25 +4964,25 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
-        <v>46043</v>
-      </c>
-      <c r="C18" s="9">
-        <v>46043</v>
-      </c>
-      <c r="D18" s="8">
-        <v>6.95</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="B18" s="7">
+        <v>45678</v>
+      </c>
+      <c r="C18" s="7">
+        <v>45678</v>
+      </c>
+      <c r="D18" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
         <v>100</v>
       </c>
     </row>
@@ -5311,13 +4991,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7">
-        <v>46224</v>
+        <v>45859</v>
       </c>
       <c r="C19" s="7">
-        <v>46224</v>
+        <v>45859</v>
       </c>
       <c r="D19" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
@@ -5330,25 +5010,25 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
-        <v>46408</v>
-      </c>
-      <c r="C20" s="7">
-        <v>46408</v>
-      </c>
-      <c r="D20" s="6">
-        <v>6.95</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="B20" s="9">
+        <v>46042</v>
+      </c>
+      <c r="C20" s="9">
+        <v>46042</v>
+      </c>
+      <c r="D20" s="8">
+        <v>8.25</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
         <v>100</v>
       </c>
     </row>
@@ -5357,13 +5037,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="7">
-        <v>46589</v>
+        <v>46223</v>
       </c>
       <c r="C21" s="7">
-        <v>46589</v>
+        <v>46223</v>
       </c>
       <c r="D21" s="6">
-        <v>6.95</v>
+        <v>8.25</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
@@ -5377,15 +5057,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25AEC68-CF81-4BF0-A760-43A5B2F316DF}">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04B532E-F4B6-4375-B5F8-9D1BF0F1A669}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5422,13 +5103,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>42754</v>
+        <v>44917</v>
       </c>
       <c r="C2" s="7">
-        <v>42754</v>
+        <v>44917</v>
       </c>
       <c r="D2" s="6">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
@@ -5445,13 +5126,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>42935</v>
+        <v>45099</v>
       </c>
       <c r="C3" s="7">
-        <v>42935</v>
+        <v>45099</v>
       </c>
       <c r="D3" s="6">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
@@ -5468,13 +5149,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>43119</v>
+        <v>45282</v>
       </c>
       <c r="C4" s="7">
-        <v>43119</v>
+        <v>45282</v>
       </c>
       <c r="D4" s="6">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
@@ -5491,22 +5172,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>43300</v>
+        <v>45465</v>
       </c>
       <c r="C5" s="7">
-        <v>43300</v>
+        <v>45467</v>
       </c>
       <c r="D5" s="6">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="G5" s="6">
-        <v>100</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5514,13 +5195,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>43487</v>
+        <v>45648</v>
       </c>
       <c r="C6" s="7">
-        <v>43487</v>
+        <v>45649</v>
       </c>
       <c r="D6" s="6">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -5529,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <v>100</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5537,45 +5218,45 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>43665</v>
+        <v>45830</v>
       </c>
       <c r="C7" s="7">
-        <v>43665</v>
+        <v>45831</v>
       </c>
       <c r="D7" s="6">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="G7" s="6">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
-        <v>43851</v>
-      </c>
-      <c r="C8" s="7">
-        <v>43851</v>
-      </c>
-      <c r="D8" s="6">
-        <v>8.25</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>100</v>
+      <c r="B8" s="9">
+        <v>46013</v>
+      </c>
+      <c r="C8" s="9">
+        <v>46013</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8.75</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5583,22 +5264,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>44032</v>
+        <v>46195</v>
       </c>
       <c r="C9" s="7">
-        <v>44032</v>
+        <v>46195</v>
       </c>
       <c r="D9" s="6">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="G9" s="6">
-        <v>100</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5606,13 +5287,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="7">
-        <v>44215</v>
+        <v>46378</v>
       </c>
       <c r="C10" s="7">
-        <v>44215</v>
+        <v>46378</v>
       </c>
       <c r="D10" s="6">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
@@ -5621,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6">
-        <v>100</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5629,22 +5310,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="7">
-        <v>44396</v>
+        <v>46560</v>
       </c>
       <c r="C11" s="7">
-        <v>44396</v>
+        <v>46560</v>
       </c>
       <c r="D11" s="6">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="G11" s="6">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5652,13 +5333,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7">
-        <v>44580</v>
+        <v>46743</v>
       </c>
       <c r="C12" s="7">
-        <v>44580</v>
+        <v>46743</v>
       </c>
       <c r="D12" s="6">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
@@ -5667,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="6">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5675,205 +5356,21 @@
         <v>12</v>
       </c>
       <c r="B13" s="7">
-        <v>44761</v>
+        <v>46926</v>
       </c>
       <c r="C13" s="7">
-        <v>44761</v>
+        <v>46926</v>
       </c>
       <c r="D13" s="6">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G13" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7">
-        <v>44945</v>
-      </c>
-      <c r="C14" s="7">
-        <v>44945</v>
-      </c>
-      <c r="D14" s="6">
-        <v>8.25</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7">
-        <v>45126</v>
-      </c>
-      <c r="C15" s="7">
-        <v>45126</v>
-      </c>
-      <c r="D15" s="6">
-        <v>8.25</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
-        <v>45310</v>
-      </c>
-      <c r="C16" s="7">
-        <v>45310</v>
-      </c>
-      <c r="D16" s="6">
-        <v>8.25</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7">
-        <v>45492</v>
-      </c>
-      <c r="C17" s="7">
-        <v>45492</v>
-      </c>
-      <c r="D17" s="6">
-        <v>8.25</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7">
-        <v>45678</v>
-      </c>
-      <c r="C18" s="7">
-        <v>45678</v>
-      </c>
-      <c r="D18" s="6">
-        <v>8.25</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7">
-        <v>45859</v>
-      </c>
-      <c r="C19" s="7">
-        <v>45859</v>
-      </c>
-      <c r="D19" s="6">
-        <v>8.25</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9">
-        <v>46042</v>
-      </c>
-      <c r="C20" s="9">
-        <v>46042</v>
-      </c>
-      <c r="D20" s="8">
-        <v>8.25</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7">
-        <v>46223</v>
-      </c>
-      <c r="C21" s="7">
-        <v>46223</v>
-      </c>
-      <c r="D21" s="6">
-        <v>8.25</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>100</v>
-      </c>
-      <c r="G21" s="6">
         <v>0</v>
       </c>
     </row>
